--- a/loaded_influencer_data/ohwhoisolena/ohwhoisolena_video.xlsx
+++ b/loaded_influencer_data/ohwhoisolena/ohwhoisolena_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ohwhoisolena/video/7330508955422149893</t>
         </is>
@@ -515,10 +515,10 @@
         <v>3800000</v>
       </c>
       <c r="C2" t="n">
-        <v>273300</v>
+        <v>273400</v>
       </c>
       <c r="D2" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.208578947368421</v>
+        <v>7.211236842105263</v>
       </c>
       <c r="I2" t="n">
-        <v>7.192105263157894</v>
+        <v>7.194736842105264</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01647368421052632</v>
+        <v>0.0165</v>
       </c>
       <c r="L2" t="n">
         <v>0.5947368421052632</v>
@@ -559,133 +559,137 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ohwhoisolena/video/7483342328497720607</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7487152812393090334</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6573</v>
+        <v>2555</v>
       </c>
       <c r="C3" t="n">
-        <v>2438</v>
+        <v>241</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>49</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>37.27369542066027</v>
+        <v>9.549902152641879</v>
       </c>
       <c r="I3" t="n">
-        <v>37.09113038186521</v>
+        <v>9.432485322896282</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1825650387950707</v>
+        <v>0.1174168297455969</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7454739084132056</v>
+        <v>0.4696673189823874</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ohwhoisolena/video/7483319311969389854</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7487047120202042655</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>EXACTLY!!!</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>12.60162601626016</v>
+        <v>8.615384615384615</v>
       </c>
       <c r="I4" t="n">
-        <v>12.60162601626016</v>
+        <v>8.461538461538462</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2032520325203252</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ohwhoisolena/video/7483285173031783710</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7483342328497720607</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>832</v>
+        <v>6743</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>2441</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>10.9375</v>
+        <v>36.39329675218745</v>
       </c>
       <c r="I5" t="n">
-        <v>10.33653846153846</v>
+        <v>36.20050422660537</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6009615384615385</v>
+        <v>0.1927925255820851</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8413461538461539</v>
+        <v>0.7266795195017055</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -697,41 +701,41 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ohwhoisolena/video/7483280206631914783</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7483319311969389854</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>761</v>
+        <v>545</v>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>11.95795006570302</v>
+        <v>11.92660550458716</v>
       </c>
       <c r="I6" t="n">
-        <v>11.82654402102497</v>
+        <v>11.92660550458716</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1314060446780552</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5256241787122208</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -743,41 +747,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ohwhoisolena/video/7483272203870424350</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7483285173031783710</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1112</v>
+        <v>880</v>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>7.553956834532374</v>
+        <v>10.34090909090909</v>
       </c>
       <c r="I7" t="n">
-        <v>7.374100719424461</v>
+        <v>9.772727272727273</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1798561151079137</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4496402877697842</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -789,41 +793,41 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ohwhoisolena/video/7483266267441286431</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7483280206631914783</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>490</v>
+        <v>815</v>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>14.48979591836735</v>
+        <v>11.16564417177914</v>
       </c>
       <c r="I8" t="n">
-        <v>14.48979591836735</v>
+        <v>11.04294478527607</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L8" t="n">
-        <v>1.224489795918367</v>
+        <v>0.49079754601227</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -835,16 +839,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ohwhoisolena/video/7483006554107579679</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7483272203870424350</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>573</v>
+        <v>1169</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -853,78 +857,170 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
+        <v>7.18562874251497</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.014542343883662</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1710863986313088</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.427715996578272</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7483266267441286431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>540</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ohwhoisolena/video/7483006554107579679</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>573</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>2.792321116928447</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>2.443280977312391</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.3490401396160558</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>0.1745200698080279</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ohwhoisolena/video/7478383140558425374</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>783</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>60</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>this song + pear martini &gt;&gt;&gt;</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>7.790549169859514</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>7.662835249042145</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>0.3831417624521072</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
